--- a/Cahier des charges/Diagramme de Gantt.xlsx
+++ b/Cahier des charges/Diagramme de Gantt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Projet site mairie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Stage_Zark_Bywind_public\Cahier des charges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF84BA7-DAC0-47CE-B94B-5437D737C1D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C066D4-2834-4FC9-90D7-6979758CDE79}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Numéro</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Organisation + charte graphique</t>
+  </si>
+  <si>
+    <t>Mise en forme du site</t>
   </si>
 </sst>
 </file>
@@ -89,10 +92,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,17 +380,17 @@
   <dimension ref="A1:AG5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="33" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +512,7 @@
       </c>
       <c r="AG1" s="1"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -529,13 +533,19 @@
       <c r="G2" s="2"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="H3" s="1"/>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="H5" s="1"/>
     </row>
   </sheetData>

--- a/Cahier des charges/Diagramme de Gantt.xlsx
+++ b/Cahier des charges/Diagramme de Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Stage_Zark_Bywind_public\Cahier des charges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C066D4-2834-4FC9-90D7-6979758CDE79}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97E4590-0676-4EDE-B8C1-5D7482EF6E59}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
   <si>
     <t>Numéro</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Mise en forme du site</t>
+  </si>
+  <si>
+    <t>Férié</t>
   </si>
 </sst>
 </file>
@@ -66,7 +69,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -76,6 +79,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -92,11 +101,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,7 +392,7 @@
   <dimension ref="A1:AG5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,6 +553,11 @@
         <v>6</v>
       </c>
       <c r="H3" s="3"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="H4" s="1"/>

--- a/Cahier des charges/Diagramme de Gantt.xlsx
+++ b/Cahier des charges/Diagramme de Gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Stage_Zark_Bywind_public\Cahier des charges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97E4590-0676-4EDE-B8C1-5D7482EF6E59}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3552AE41-5394-4FDC-86B6-2C415F1B32CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Numéro</t>
   </si>
@@ -54,6 +54,18 @@
   </si>
   <si>
     <t>Férié</t>
+  </si>
+  <si>
+    <t>Élaboration de la base de donnée</t>
+  </si>
+  <si>
+    <t>Php pour lier la base de donnée au site et compléter les pages</t>
+  </si>
+  <si>
+    <t>Css</t>
+  </si>
+  <si>
+    <t>Finalisation par rapport à la demande</t>
   </si>
 </sst>
 </file>
@@ -389,20 +401,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AG7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +536,7 @@
       </c>
       <c r="AG1" s="1"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -545,12 +557,21 @@
       <c r="G2" s="2"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43613</v>
+      </c>
+      <c r="E3" s="1">
+        <v>43620</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="2"/>
@@ -558,12 +579,97 @@
         <v>7</v>
       </c>
       <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43621</v>
+      </c>
+      <c r="E4" s="1">
+        <v>43622</v>
+      </c>
       <c r="H4" s="1"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43623</v>
+      </c>
+      <c r="E5" s="1">
+        <v>43632</v>
+      </c>
       <c r="H5" s="1"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43633</v>
+      </c>
+      <c r="E6" s="1">
+        <v>43635</v>
+      </c>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43636</v>
+      </c>
+      <c r="E7" s="1">
+        <v>43637</v>
+      </c>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
